--- a/Code/Results/Cases/Case_5_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.2965118700656</v>
+        <v>11.78343898000435</v>
       </c>
       <c r="C2">
-        <v>13.01488297970924</v>
+        <v>8.320682808848133</v>
       </c>
       <c r="D2">
-        <v>3.635523872242253</v>
+        <v>3.944530293171527</v>
       </c>
       <c r="E2">
-        <v>12.16268669120991</v>
+        <v>11.80144205942174</v>
       </c>
       <c r="F2">
-        <v>19.41672645455174</v>
+        <v>21.68843984460188</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.47018742999552</v>
+        <v>14.2283810455674</v>
       </c>
       <c r="N2">
-        <v>10.988469382167</v>
+        <v>16.55318618368921</v>
       </c>
       <c r="O2">
-        <v>14.84513713517419</v>
+        <v>19.17549271906796</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.0352514230374</v>
+        <v>11.22455376164815</v>
       </c>
       <c r="C3">
-        <v>12.28693256410593</v>
+        <v>7.952968402873063</v>
       </c>
       <c r="D3">
-        <v>3.531179577061425</v>
+        <v>3.908799376977902</v>
       </c>
       <c r="E3">
-        <v>11.50139234053674</v>
+        <v>11.68535303170106</v>
       </c>
       <c r="F3">
-        <v>18.59416708697887</v>
+        <v>21.59894531516995</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.33178612667565</v>
+        <v>13.95445261415484</v>
       </c>
       <c r="N3">
-        <v>11.17931123627018</v>
+        <v>16.61195351724882</v>
       </c>
       <c r="O3">
-        <v>14.4247452406479</v>
+        <v>19.17683231908308</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.21631318013147</v>
+        <v>10.86815566977353</v>
       </c>
       <c r="C4">
-        <v>11.81750081042727</v>
+        <v>7.716795311432782</v>
       </c>
       <c r="D4">
-        <v>3.465174238730003</v>
+        <v>3.886432356697304</v>
       </c>
       <c r="E4">
-        <v>11.09031883420793</v>
+        <v>11.61800286406398</v>
       </c>
       <c r="F4">
-        <v>18.09214526325827</v>
+        <v>21.55145764633516</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.59541307425677</v>
+        <v>13.78690265558002</v>
       </c>
       <c r="N4">
-        <v>11.29961595408752</v>
+        <v>16.64987138642316</v>
       </c>
       <c r="O4">
-        <v>14.17785588840009</v>
+        <v>19.18361076711308</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.87135084207553</v>
+        <v>10.71978362971631</v>
       </c>
       <c r="C5">
-        <v>11.62062488584387</v>
+        <v>7.61801927051962</v>
       </c>
       <c r="D5">
-        <v>3.437814569608511</v>
+        <v>3.877214260738068</v>
       </c>
       <c r="E5">
-        <v>10.92173185320631</v>
+        <v>11.59157444985725</v>
       </c>
       <c r="F5">
-        <v>17.8886272844733</v>
+        <v>21.5339975515409</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.28588876735225</v>
+        <v>13.71888354482406</v>
       </c>
       <c r="N5">
-        <v>11.34943812376961</v>
+        <v>16.66578571420686</v>
       </c>
       <c r="O5">
-        <v>14.08013867598446</v>
+        <v>19.18786801577225</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.81339023659372</v>
+        <v>10.69496330934203</v>
       </c>
       <c r="C6">
-        <v>11.58759935455863</v>
+        <v>7.601467156893802</v>
       </c>
       <c r="D6">
-        <v>3.433244397390904</v>
+        <v>3.875677487036029</v>
       </c>
       <c r="E6">
-        <v>10.89367988564123</v>
+        <v>11.58724828360266</v>
       </c>
       <c r="F6">
-        <v>17.85490649501616</v>
+        <v>21.53121293854136</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.23392091228885</v>
+        <v>13.70760751819031</v>
       </c>
       <c r="N6">
-        <v>11.35775951411244</v>
+        <v>16.66845624462323</v>
       </c>
       <c r="O6">
-        <v>14.06408929568656</v>
+        <v>19.18866512065622</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.21170645272953</v>
+        <v>10.86616709788747</v>
       </c>
       <c r="C7">
-        <v>11.81486815111651</v>
+        <v>7.715473326262935</v>
       </c>
       <c r="D7">
-        <v>3.464807092140585</v>
+        <v>3.886308451010633</v>
       </c>
       <c r="E7">
-        <v>11.08804926172318</v>
+        <v>11.61764228522601</v>
       </c>
       <c r="F7">
-        <v>18.08939584448502</v>
+        <v>21.55121449715293</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.59127701854851</v>
+        <v>13.7859841487944</v>
       </c>
       <c r="N7">
-        <v>11.30028463177115</v>
+        <v>16.65008413844099</v>
       </c>
       <c r="O7">
-        <v>14.17652624627197</v>
+        <v>19.18366213319532</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.87084024665733</v>
+        <v>11.59358998256362</v>
       </c>
       <c r="C8">
-        <v>12.76858473967457</v>
+        <v>8.196096751481319</v>
       </c>
       <c r="D8">
-        <v>3.599962550499739</v>
+        <v>3.932301681410655</v>
       </c>
       <c r="E8">
-        <v>11.9358225349574</v>
+        <v>11.7606174827802</v>
       </c>
       <c r="F8">
-        <v>19.1326481505519</v>
+        <v>21.65604328437831</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.08539640378902</v>
+        <v>14.13385486837878</v>
       </c>
       <c r="N8">
-        <v>11.05362899146696</v>
+        <v>16.57306912862203</v>
       </c>
       <c r="O8">
-        <v>14.69789728786446</v>
+        <v>19.17471718070536</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.77356481676524</v>
+        <v>12.9079474125148</v>
       </c>
       <c r="C9">
-        <v>14.45847393045445</v>
+        <v>9.053186629045365</v>
       </c>
       <c r="D9">
-        <v>3.848633455088588</v>
+        <v>4.018912906888967</v>
       </c>
       <c r="E9">
-        <v>13.55181444959502</v>
+        <v>12.0707577005332</v>
       </c>
       <c r="F9">
-        <v>21.19105877018096</v>
+        <v>21.92001595147791</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.7213245515352</v>
+        <v>14.81694917484897</v>
       </c>
       <c r="N9">
-        <v>10.59428147331728</v>
+        <v>16.43654429983507</v>
       </c>
       <c r="O9">
-        <v>15.80624245036971</v>
+        <v>19.20450340591524</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.69619265306618</v>
+        <v>13.79749841492932</v>
       </c>
       <c r="C10">
-        <v>15.58854434018474</v>
+        <v>9.627619568836547</v>
       </c>
       <c r="D10">
-        <v>4.020177662733883</v>
+        <v>4.080121807558141</v>
       </c>
       <c r="E10">
-        <v>14.85142245222018</v>
+        <v>12.31473336545955</v>
       </c>
       <c r="F10">
-        <v>22.6982830651749</v>
+        <v>22.14827884224996</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.48314955034577</v>
+        <v>15.3139558856328</v>
       </c>
       <c r="N10">
-        <v>10.27102822591353</v>
+        <v>16.34500352820965</v>
       </c>
       <c r="O10">
-        <v>16.66874288144029</v>
+        <v>19.25526019056269</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.52621310255525</v>
+        <v>14.18442696672206</v>
       </c>
       <c r="C11">
-        <v>16.07839704946268</v>
+        <v>9.876441002296087</v>
       </c>
       <c r="D11">
-        <v>4.095589557009566</v>
+        <v>4.107391319341644</v>
       </c>
       <c r="E11">
-        <v>15.45410190756732</v>
+        <v>12.42875875494145</v>
       </c>
       <c r="F11">
-        <v>23.38092915553771</v>
+        <v>22.25924311960841</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.24786542734898</v>
+        <v>15.53791975109936</v>
       </c>
       <c r="N11">
-        <v>10.12694946213704</v>
+        <v>16.30524626829379</v>
       </c>
       <c r="O11">
-        <v>17.07080568056609</v>
+        <v>19.28459914942769</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.83419381066905</v>
+        <v>14.32831695990069</v>
       </c>
       <c r="C12">
-        <v>16.26041950563011</v>
+        <v>9.968834400715549</v>
       </c>
       <c r="D12">
-        <v>4.123754112185162</v>
+        <v>4.117630846579054</v>
       </c>
       <c r="E12">
-        <v>15.67938914306636</v>
+        <v>12.4723338514223</v>
       </c>
       <c r="F12">
-        <v>23.63888951565456</v>
+        <v>22.30225552077471</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.53226712637229</v>
+        <v>15.62233863622219</v>
       </c>
       <c r="N12">
-        <v>10.07281100551714</v>
+        <v>16.29046114303009</v>
       </c>
       <c r="O12">
-        <v>17.22440050639357</v>
+        <v>19.29660382663612</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.76814480516165</v>
+        <v>14.2974458584164</v>
       </c>
       <c r="C13">
-        <v>16.22137197494024</v>
+        <v>9.949017686367631</v>
       </c>
       <c r="D13">
-        <v>4.117706035897244</v>
+        <v>4.11542950938904</v>
       </c>
       <c r="E13">
-        <v>15.63099791743874</v>
+        <v>12.46293221333026</v>
       </c>
       <c r="F13">
-        <v>23.58335864337476</v>
+        <v>22.2929484180356</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.47124471958389</v>
+        <v>15.60417623693129</v>
       </c>
       <c r="N13">
-        <v>10.08445204318334</v>
+        <v>16.29363338762593</v>
       </c>
       <c r="O13">
-        <v>17.19126210498921</v>
+        <v>19.2939786921497</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.55167722965753</v>
+        <v>14.19631803800135</v>
       </c>
       <c r="C14">
-        <v>16.09344168571323</v>
+        <v>9.884079107880627</v>
       </c>
       <c r="D14">
-        <v>4.097914612704767</v>
+        <v>4.108235495598493</v>
       </c>
       <c r="E14">
-        <v>15.47269448418191</v>
+        <v>12.43233600130051</v>
       </c>
       <c r="F14">
-        <v>23.40216309054044</v>
+        <v>22.262762073781</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.27136649723204</v>
+        <v>15.54487326041683</v>
       </c>
       <c r="N14">
-        <v>10.12248704914877</v>
+        <v>16.30402447978966</v>
       </c>
       <c r="O14">
-        <v>17.08341537062629</v>
+        <v>19.28556887881001</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.41826278522038</v>
+        <v>14.13402945837205</v>
       </c>
       <c r="C15">
-        <v>16.01462869536302</v>
+        <v>9.844063152631021</v>
       </c>
       <c r="D15">
-        <v>4.085740296413732</v>
+        <v>4.10381752177371</v>
       </c>
       <c r="E15">
-        <v>15.37535077566855</v>
+        <v>12.41364530427748</v>
       </c>
       <c r="F15">
-        <v>23.29110223479481</v>
+        <v>22.24440034516831</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.1482640580347</v>
+        <v>15.50849504872</v>
       </c>
       <c r="N15">
-        <v>10.1458392691476</v>
+        <v>16.31042446803561</v>
       </c>
       <c r="O15">
-        <v>17.01752960788589</v>
+        <v>19.28053399446573</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.64105844224057</v>
+        <v>13.77184759915862</v>
       </c>
       <c r="C16">
-        <v>15.55604443484746</v>
+        <v>9.611104132074695</v>
       </c>
       <c r="D16">
-        <v>4.015195190550537</v>
+        <v>4.078327754471355</v>
       </c>
       <c r="E16">
-        <v>14.81161836599885</v>
+        <v>12.30733921804141</v>
       </c>
       <c r="F16">
-        <v>22.6535997568205</v>
+        <v>22.14116777241254</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.43244282777029</v>
+        <v>15.29926910453792</v>
       </c>
       <c r="N16">
-        <v>10.28050332633091</v>
+        <v>16.34763960658738</v>
       </c>
       <c r="O16">
-        <v>16.64265756853708</v>
+        <v>19.25346826139264</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.15290411142098</v>
+        <v>13.54505633832472</v>
       </c>
       <c r="C17">
-        <v>15.26851707108951</v>
+        <v>9.464966124799165</v>
       </c>
       <c r="D17">
-        <v>3.971234664195698</v>
+        <v>4.062540385874824</v>
       </c>
       <c r="E17">
-        <v>14.46042610967152</v>
+        <v>12.24287348476386</v>
       </c>
       <c r="F17">
-        <v>22.2616527778615</v>
+        <v>22.07964104083324</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.98396902504117</v>
+        <v>15.1703086935997</v>
       </c>
       <c r="N17">
-        <v>10.36387134070663</v>
+        <v>16.37095199654326</v>
       </c>
       <c r="O17">
-        <v>16.41512950994376</v>
+        <v>19.23846249190684</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.86792806894691</v>
+        <v>13.41294679643635</v>
       </c>
       <c r="C18">
-        <v>15.10085781813534</v>
+        <v>9.379737287584121</v>
       </c>
       <c r="D18">
-        <v>3.945703475402767</v>
+        <v>4.053406058119783</v>
       </c>
       <c r="E18">
-        <v>14.25642173672461</v>
+        <v>12.20608310727694</v>
       </c>
       <c r="F18">
-        <v>22.03593726733563</v>
+        <v>22.04492533293595</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.72255305043308</v>
+        <v>15.09593870589634</v>
       </c>
       <c r="N18">
-        <v>10.41210231459043</v>
+        <v>16.38453815840131</v>
       </c>
       <c r="O18">
-        <v>16.28517749228712</v>
+        <v>19.23042011826203</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.77071587409141</v>
+        <v>13.36793349707951</v>
       </c>
       <c r="C19">
-        <v>15.04369938880797</v>
+        <v>9.350679739336108</v>
       </c>
       <c r="D19">
-        <v>3.937017244066997</v>
+        <v>4.050304212440587</v>
       </c>
       <c r="E19">
-        <v>14.18700110249111</v>
+        <v>12.19367732295296</v>
       </c>
       <c r="F19">
-        <v>21.9594701830591</v>
+        <v>22.03328769283292</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.63344383636136</v>
+        <v>15.07072743199313</v>
       </c>
       <c r="N19">
-        <v>10.4284807812428</v>
+        <v>16.38916871425659</v>
       </c>
       <c r="O19">
-        <v>16.24133717074304</v>
+        <v>19.22779829391822</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.20530334807794</v>
+        <v>13.56937163383246</v>
       </c>
       <c r="C20">
-        <v>15.2993609045836</v>
+        <v>9.480644545602029</v>
       </c>
       <c r="D20">
-        <v>3.975939937883465</v>
+        <v>4.064226582327617</v>
       </c>
       <c r="E20">
-        <v>14.49801811144231</v>
+        <v>12.24970639696949</v>
       </c>
       <c r="F20">
-        <v>22.30340590730918</v>
+        <v>22.08612125535534</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.03206778931124</v>
+        <v>15.18405760373371</v>
       </c>
       <c r="N20">
-        <v>10.35496775504239</v>
+        <v>16.3684519903201</v>
       </c>
       <c r="O20">
-        <v>16.4392558796288</v>
+        <v>19.23999899416603</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.61543011110466</v>
+        <v>14.22609372670871</v>
       </c>
       <c r="C21">
-        <v>16.13111207772226</v>
+        <v>9.903203043570047</v>
       </c>
       <c r="D21">
-        <v>4.10373858957774</v>
+        <v>4.110350941735045</v>
       </c>
       <c r="E21">
-        <v>15.51927063548539</v>
+        <v>12.44131242794254</v>
       </c>
       <c r="F21">
-        <v>23.45540004657391</v>
+        <v>22.27160186204832</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.33021526409717</v>
+        <v>15.56230326213471</v>
       </c>
       <c r="N21">
-        <v>10.11130385891264</v>
+        <v>16.30096504183578</v>
       </c>
       <c r="O21">
-        <v>17.11505649300566</v>
+        <v>19.28801480254862</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.50017601401015</v>
+        <v>14.63993320616985</v>
       </c>
       <c r="C22">
-        <v>16.65447084386829</v>
+        <v>10.16869196476059</v>
       </c>
       <c r="D22">
-        <v>4.184970212272692</v>
+        <v>4.139987805146061</v>
       </c>
       <c r="E22">
-        <v>16.16968212277322</v>
+        <v>12.56882783048828</v>
       </c>
       <c r="F22">
-        <v>24.20510636087459</v>
+        <v>22.39859357624989</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.14849500810588</v>
+        <v>15.80719114238382</v>
       </c>
       <c r="N22">
-        <v>9.954508119547329</v>
+        <v>16.25843224671676</v>
       </c>
       <c r="O22">
-        <v>17.56454180434118</v>
+        <v>19.32460786242715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.03131370595343</v>
+        <v>14.42048868112876</v>
       </c>
       <c r="C23">
-        <v>16.37699069967273</v>
+        <v>10.02798213433335</v>
       </c>
       <c r="D23">
-        <v>4.141829542255497</v>
+        <v>4.124217902045276</v>
       </c>
       <c r="E23">
-        <v>15.82405991465031</v>
+        <v>12.50057459984157</v>
       </c>
       <c r="F23">
-        <v>23.80529248572289</v>
+        <v>22.33029898784199</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.71448374927249</v>
+        <v>15.67672895778945</v>
       </c>
       <c r="N23">
-        <v>10.03797007260465</v>
+        <v>16.28098911523044</v>
       </c>
       <c r="O23">
-        <v>17.32394211388389</v>
+        <v>19.30460221587668</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.18162714512448</v>
+        <v>13.55838405297593</v>
       </c>
       <c r="C24">
-        <v>15.28542374625272</v>
+        <v>9.473560104583754</v>
       </c>
       <c r="D24">
-        <v>3.973813485165433</v>
+        <v>4.063464433109188</v>
       </c>
       <c r="E24">
-        <v>14.48102931510704</v>
+        <v>12.24661638753287</v>
       </c>
       <c r="F24">
-        <v>22.28453049205172</v>
+        <v>22.08318950193505</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.01033350418215</v>
+        <v>15.17784242795886</v>
       </c>
       <c r="N24">
-        <v>10.3589921262395</v>
+        <v>16.36958167125508</v>
       </c>
       <c r="O24">
-        <v>16.42834567459672</v>
+        <v>19.23930252003273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.02548538848526</v>
+        <v>12.56526752789004</v>
       </c>
       <c r="C25">
-        <v>14.02083857638135</v>
+        <v>8.830831317804964</v>
       </c>
       <c r="D25">
-        <v>3.783243427735403</v>
+        <v>3.995890858450632</v>
       </c>
       <c r="E25">
-        <v>13.12037671522982</v>
+        <v>11.98387268917391</v>
       </c>
       <c r="F25">
-        <v>20.63431432432345</v>
+        <v>21.84247297828357</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.03929312983318</v>
+        <v>14.63262776554352</v>
       </c>
       <c r="N25">
-        <v>10.71600703029741</v>
+        <v>16.47193339399939</v>
       </c>
       <c r="O25">
-        <v>15.4976483488659</v>
+        <v>19.19137171584733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.78343898000435</v>
+        <v>19.29651187006558</v>
       </c>
       <c r="C2">
-        <v>8.320682808848133</v>
+        <v>13.01488297970926</v>
       </c>
       <c r="D2">
-        <v>3.944530293171527</v>
+        <v>3.63552387224236</v>
       </c>
       <c r="E2">
-        <v>11.80144205942174</v>
+        <v>12.16268669120989</v>
       </c>
       <c r="F2">
-        <v>21.68843984460188</v>
+        <v>19.41672645455176</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.2283810455674</v>
+        <v>17.47018742999552</v>
       </c>
       <c r="N2">
-        <v>16.55318618368921</v>
+        <v>10.988469382167</v>
       </c>
       <c r="O2">
-        <v>19.17549271906796</v>
+        <v>14.84513713517421</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.22455376164815</v>
+        <v>18.03525142303739</v>
       </c>
       <c r="C3">
-        <v>7.952968402873063</v>
+        <v>12.28693256410584</v>
       </c>
       <c r="D3">
-        <v>3.908799376977902</v>
+        <v>3.531179577061534</v>
       </c>
       <c r="E3">
-        <v>11.68535303170106</v>
+        <v>11.50139234053673</v>
       </c>
       <c r="F3">
-        <v>21.59894531516995</v>
+        <v>18.59416708697897</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.95445261415484</v>
+        <v>16.33178612667562</v>
       </c>
       <c r="N3">
-        <v>16.61195351724882</v>
+        <v>11.17931123627024</v>
       </c>
       <c r="O3">
-        <v>19.17683231908308</v>
+        <v>14.42474524064803</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86815566977353</v>
+        <v>17.21631318013154</v>
       </c>
       <c r="C4">
-        <v>7.716795311432782</v>
+        <v>11.81750081042745</v>
       </c>
       <c r="D4">
-        <v>3.886432356697304</v>
+        <v>3.465174238729954</v>
       </c>
       <c r="E4">
-        <v>11.61800286406398</v>
+        <v>11.09031883420795</v>
       </c>
       <c r="F4">
-        <v>21.55145764633516</v>
+        <v>18.0921452632582</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.78690265558002</v>
+        <v>15.59541307425679</v>
       </c>
       <c r="N4">
-        <v>16.64987138642316</v>
+        <v>11.29961595408749</v>
       </c>
       <c r="O4">
-        <v>19.18361076711308</v>
+        <v>14.17785588840002</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.71978362971631</v>
+        <v>16.87135084207552</v>
       </c>
       <c r="C5">
-        <v>7.61801927051962</v>
+        <v>11.62062488584379</v>
       </c>
       <c r="D5">
-        <v>3.877214260738068</v>
+        <v>3.437814569608665</v>
       </c>
       <c r="E5">
-        <v>11.59157444985725</v>
+        <v>10.92173185320631</v>
       </c>
       <c r="F5">
-        <v>21.5339975515409</v>
+        <v>17.88862728447336</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.71888354482406</v>
+        <v>15.28588876735222</v>
       </c>
       <c r="N5">
-        <v>16.66578571420686</v>
+        <v>11.34943812376968</v>
       </c>
       <c r="O5">
-        <v>19.18786801577225</v>
+        <v>14.08013867598456</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.69496330934203</v>
+        <v>16.81339023659364</v>
       </c>
       <c r="C6">
-        <v>7.601467156893802</v>
+        <v>11.58759935455864</v>
       </c>
       <c r="D6">
-        <v>3.875677487036029</v>
+        <v>3.433244397391021</v>
       </c>
       <c r="E6">
-        <v>11.58724828360266</v>
+        <v>10.89367988564121</v>
       </c>
       <c r="F6">
-        <v>21.53121293854136</v>
+        <v>17.8549064950163</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.70760751819031</v>
+        <v>15.23392091228881</v>
       </c>
       <c r="N6">
-        <v>16.66845624462323</v>
+        <v>11.35775951411254</v>
       </c>
       <c r="O6">
-        <v>19.18866512065622</v>
+        <v>14.06408929568671</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.86616709788747</v>
+        <v>17.21170645272948</v>
       </c>
       <c r="C7">
-        <v>7.715473326262935</v>
+        <v>11.81486815111651</v>
       </c>
       <c r="D7">
-        <v>3.886308451010633</v>
+        <v>3.464807092140469</v>
       </c>
       <c r="E7">
-        <v>11.61764228522601</v>
+        <v>11.08804926172319</v>
       </c>
       <c r="F7">
-        <v>21.55121449715293</v>
+        <v>18.08939584448517</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.7859841487944</v>
+        <v>15.59127701854847</v>
       </c>
       <c r="N7">
-        <v>16.65008413844099</v>
+        <v>11.30028463177118</v>
       </c>
       <c r="O7">
-        <v>19.18366213319532</v>
+        <v>14.17652624627206</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.59358998256362</v>
+        <v>18.87084024665729</v>
       </c>
       <c r="C8">
-        <v>8.196096751481319</v>
+        <v>12.76858473967442</v>
       </c>
       <c r="D8">
-        <v>3.932301681410655</v>
+        <v>3.599962550499699</v>
       </c>
       <c r="E8">
-        <v>11.7606174827802</v>
+        <v>11.9358225349574</v>
       </c>
       <c r="F8">
-        <v>21.65604328437831</v>
+        <v>19.1326481505519</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.13385486837878</v>
+        <v>17.08539640378898</v>
       </c>
       <c r="N8">
-        <v>16.57306912862203</v>
+        <v>11.05362899146696</v>
       </c>
       <c r="O8">
-        <v>19.17471718070536</v>
+        <v>14.69789728786447</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.9079474125148</v>
+        <v>21.77356481676525</v>
       </c>
       <c r="C9">
-        <v>9.053186629045365</v>
+        <v>14.45847393045439</v>
       </c>
       <c r="D9">
-        <v>4.018912906888967</v>
+        <v>3.848633455088588</v>
       </c>
       <c r="E9">
-        <v>12.0707577005332</v>
+        <v>13.55181444959502</v>
       </c>
       <c r="F9">
-        <v>21.92001595147791</v>
+        <v>21.19105877018093</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.81694917484897</v>
+        <v>19.72132455153518</v>
       </c>
       <c r="N9">
-        <v>16.43654429983507</v>
+        <v>10.59428147331725</v>
       </c>
       <c r="O9">
-        <v>19.20450340591524</v>
+        <v>15.80624245036968</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.79749841492932</v>
+        <v>23.69619265306617</v>
       </c>
       <c r="C10">
-        <v>9.627619568836547</v>
+        <v>15.58854434018482</v>
       </c>
       <c r="D10">
-        <v>4.080121807558141</v>
+        <v>4.020177662733902</v>
       </c>
       <c r="E10">
-        <v>12.31473336545955</v>
+        <v>14.85142245222021</v>
       </c>
       <c r="F10">
-        <v>22.14827884224996</v>
+        <v>22.6982830651749</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.3139558856328</v>
+        <v>21.48314955034581</v>
       </c>
       <c r="N10">
-        <v>16.34500352820965</v>
+        <v>10.2710282259135</v>
       </c>
       <c r="O10">
-        <v>19.25526019056269</v>
+        <v>16.66874288144028</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.18442696672206</v>
+        <v>24.52621310255526</v>
       </c>
       <c r="C11">
-        <v>9.876441002296087</v>
+        <v>16.07839704946269</v>
       </c>
       <c r="D11">
-        <v>4.107391319341644</v>
+        <v>4.095589557009572</v>
       </c>
       <c r="E11">
-        <v>12.42875875494145</v>
+        <v>15.45410190756728</v>
       </c>
       <c r="F11">
-        <v>22.25924311960841</v>
+        <v>23.38092915553774</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.53791975109936</v>
+        <v>22.24786542734896</v>
       </c>
       <c r="N11">
-        <v>16.30524626829379</v>
+        <v>10.12694946213708</v>
       </c>
       <c r="O11">
-        <v>19.28459914942769</v>
+        <v>17.0708056805661</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.32831695990069</v>
+        <v>24.83419381066911</v>
       </c>
       <c r="C12">
-        <v>9.968834400715549</v>
+        <v>16.26041950563016</v>
       </c>
       <c r="D12">
-        <v>4.117630846579054</v>
+        <v>4.123754112185124</v>
       </c>
       <c r="E12">
-        <v>12.4723338514223</v>
+        <v>15.67938914306634</v>
       </c>
       <c r="F12">
-        <v>22.30225552077471</v>
+        <v>23.63888951565453</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.62233863622219</v>
+        <v>22.53226712637233</v>
       </c>
       <c r="N12">
-        <v>16.29046114303009</v>
+        <v>10.07281100551708</v>
       </c>
       <c r="O12">
-        <v>19.29660382663612</v>
+        <v>17.22440050639352</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.2974458584164</v>
+        <v>24.7681448051616</v>
       </c>
       <c r="C13">
-        <v>9.949017686367631</v>
+        <v>16.22137197494024</v>
       </c>
       <c r="D13">
-        <v>4.11542950938904</v>
+        <v>4.117706035897335</v>
       </c>
       <c r="E13">
-        <v>12.46293221333026</v>
+        <v>15.63099791743879</v>
       </c>
       <c r="F13">
-        <v>22.2929484180356</v>
+        <v>23.58335864337474</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.60417623693129</v>
+        <v>22.47124471958389</v>
       </c>
       <c r="N13">
-        <v>16.29363338762593</v>
+        <v>10.08445204318331</v>
       </c>
       <c r="O13">
-        <v>19.2939786921497</v>
+        <v>17.1912621049892</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.19631803800135</v>
+        <v>24.55167722965754</v>
       </c>
       <c r="C14">
-        <v>9.884079107880627</v>
+        <v>16.09344168571337</v>
       </c>
       <c r="D14">
-        <v>4.108235495598493</v>
+        <v>4.097914612704863</v>
       </c>
       <c r="E14">
-        <v>12.43233600130051</v>
+        <v>15.47269448418192</v>
       </c>
       <c r="F14">
-        <v>22.262762073781</v>
+        <v>23.40216309054041</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.54487326041683</v>
+        <v>22.27136649723209</v>
       </c>
       <c r="N14">
-        <v>16.30402447978966</v>
+        <v>10.12248704914878</v>
       </c>
       <c r="O14">
-        <v>19.28556887881001</v>
+        <v>17.08341537062626</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.13402945837205</v>
+        <v>24.41826278522043</v>
       </c>
       <c r="C15">
-        <v>9.844063152631021</v>
+        <v>16.01462869536302</v>
       </c>
       <c r="D15">
-        <v>4.10381752177371</v>
+        <v>4.085740296413783</v>
       </c>
       <c r="E15">
-        <v>12.41364530427748</v>
+        <v>15.37535077566858</v>
       </c>
       <c r="F15">
-        <v>22.24440034516831</v>
+        <v>23.29110223479478</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.50849504872</v>
+        <v>22.14826405803475</v>
       </c>
       <c r="N15">
-        <v>16.31042446803561</v>
+        <v>10.1458392691476</v>
       </c>
       <c r="O15">
-        <v>19.28053399446573</v>
+        <v>17.01752960788587</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.77184759915862</v>
+        <v>23.64105844224055</v>
       </c>
       <c r="C16">
-        <v>9.611104132074695</v>
+        <v>15.55604443484752</v>
       </c>
       <c r="D16">
-        <v>4.078327754471355</v>
+        <v>4.015195190550549</v>
       </c>
       <c r="E16">
-        <v>12.30733921804141</v>
+        <v>14.81161836599882</v>
       </c>
       <c r="F16">
-        <v>22.14116777241254</v>
+        <v>22.65359975682048</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.29926910453792</v>
+        <v>21.43244282777029</v>
       </c>
       <c r="N16">
-        <v>16.34763960658738</v>
+        <v>10.28050332633091</v>
       </c>
       <c r="O16">
-        <v>19.25346826139264</v>
+        <v>16.64265756853705</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.54505633832472</v>
+        <v>23.15290411142102</v>
       </c>
       <c r="C17">
-        <v>9.464966124799165</v>
+        <v>15.26851707108958</v>
       </c>
       <c r="D17">
-        <v>4.062540385874824</v>
+        <v>3.971234664195711</v>
       </c>
       <c r="E17">
-        <v>12.24287348476386</v>
+        <v>14.46042610967151</v>
       </c>
       <c r="F17">
-        <v>22.07964104083324</v>
+        <v>22.26165277786155</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.1703086935997</v>
+        <v>20.98396902504118</v>
       </c>
       <c r="N17">
-        <v>16.37095199654326</v>
+        <v>10.36387134070659</v>
       </c>
       <c r="O17">
-        <v>19.23846249190684</v>
+        <v>16.41512950994378</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.41294679643635</v>
+        <v>22.86792806894691</v>
       </c>
       <c r="C18">
-        <v>9.379737287584121</v>
+        <v>15.10085781813541</v>
       </c>
       <c r="D18">
-        <v>4.053406058119783</v>
+        <v>3.945703475402825</v>
       </c>
       <c r="E18">
-        <v>12.20608310727694</v>
+        <v>14.25642173672466</v>
       </c>
       <c r="F18">
-        <v>22.04492533293595</v>
+        <v>22.03593726733563</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.09593870589634</v>
+        <v>20.72255305043311</v>
       </c>
       <c r="N18">
-        <v>16.38453815840131</v>
+        <v>10.41210231459037</v>
       </c>
       <c r="O18">
-        <v>19.23042011826203</v>
+        <v>16.28517749228709</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.36793349707951</v>
+        <v>22.77071587409147</v>
       </c>
       <c r="C19">
-        <v>9.350679739336108</v>
+        <v>15.04369938880811</v>
       </c>
       <c r="D19">
-        <v>4.050304212440587</v>
+        <v>3.93701724406698</v>
       </c>
       <c r="E19">
-        <v>12.19367732295296</v>
+        <v>14.18700110249111</v>
       </c>
       <c r="F19">
-        <v>22.03328769283292</v>
+        <v>21.95947018305907</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.07072743199313</v>
+        <v>20.6334438363614</v>
       </c>
       <c r="N19">
-        <v>16.38916871425659</v>
+        <v>10.42848078124277</v>
       </c>
       <c r="O19">
-        <v>19.22779829391822</v>
+        <v>16.24133717074299</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.56937163383246</v>
+        <v>23.20530334807795</v>
       </c>
       <c r="C20">
-        <v>9.480644545602029</v>
+        <v>15.29936090458361</v>
       </c>
       <c r="D20">
-        <v>4.064226582327617</v>
+        <v>3.975939937883365</v>
       </c>
       <c r="E20">
-        <v>12.24970639696949</v>
+        <v>14.49801811144233</v>
       </c>
       <c r="F20">
-        <v>22.08612125535534</v>
+        <v>22.30340590730915</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.18405760373371</v>
+        <v>21.03206778931126</v>
       </c>
       <c r="N20">
-        <v>16.3684519903201</v>
+        <v>10.35496775504236</v>
       </c>
       <c r="O20">
-        <v>19.23999899416603</v>
+        <v>16.43925587962875</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.22609372670871</v>
+        <v>24.61543011110463</v>
       </c>
       <c r="C21">
-        <v>9.903203043570047</v>
+        <v>16.13111207772235</v>
       </c>
       <c r="D21">
-        <v>4.110350941735045</v>
+        <v>4.103738589577818</v>
       </c>
       <c r="E21">
-        <v>12.44131242794254</v>
+        <v>15.51927063548537</v>
       </c>
       <c r="F21">
-        <v>22.27160186204832</v>
+        <v>23.45540004657387</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.56230326213471</v>
+        <v>22.33021526409717</v>
       </c>
       <c r="N21">
-        <v>16.30096504183578</v>
+        <v>10.11130385891265</v>
       </c>
       <c r="O21">
-        <v>19.28801480254862</v>
+        <v>17.11505649300562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.63993320616985</v>
+        <v>25.50017601401008</v>
       </c>
       <c r="C22">
-        <v>10.16869196476059</v>
+        <v>16.65447084386829</v>
       </c>
       <c r="D22">
-        <v>4.139987805146061</v>
+        <v>4.184970212272742</v>
       </c>
       <c r="E22">
-        <v>12.56882783048828</v>
+        <v>16.16968212277323</v>
       </c>
       <c r="F22">
-        <v>22.39859357624989</v>
+        <v>24.20510636087461</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.80719114238382</v>
+        <v>23.14849500810584</v>
       </c>
       <c r="N22">
-        <v>16.25843224671676</v>
+        <v>9.954508119547421</v>
       </c>
       <c r="O22">
-        <v>19.32460786242715</v>
+        <v>17.56454180434122</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.42048868112876</v>
+        <v>25.03131370595336</v>
       </c>
       <c r="C23">
-        <v>10.02798213433335</v>
+        <v>16.37699069967276</v>
       </c>
       <c r="D23">
-        <v>4.124217902045276</v>
+        <v>4.141829542255433</v>
       </c>
       <c r="E23">
-        <v>12.50057459984157</v>
+        <v>15.82405991465026</v>
       </c>
       <c r="F23">
-        <v>22.33029898784199</v>
+        <v>23.80529248572287</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.67672895778945</v>
+        <v>22.71448374927245</v>
       </c>
       <c r="N23">
-        <v>16.28098911523044</v>
+        <v>10.03797007260465</v>
       </c>
       <c r="O23">
-        <v>19.30460221587668</v>
+        <v>17.32394211388391</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.55838405297593</v>
+        <v>23.1816271451245</v>
       </c>
       <c r="C24">
-        <v>9.473560104583754</v>
+        <v>15.28542374625278</v>
       </c>
       <c r="D24">
-        <v>4.063464433109188</v>
+        <v>3.973813485165425</v>
       </c>
       <c r="E24">
-        <v>12.24661638753287</v>
+        <v>14.48102931510708</v>
       </c>
       <c r="F24">
-        <v>22.08318950193505</v>
+        <v>22.28453049205172</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.17784242795886</v>
+        <v>21.0103335041822</v>
       </c>
       <c r="N24">
-        <v>16.36958167125508</v>
+        <v>10.3589921262395</v>
       </c>
       <c r="O24">
-        <v>19.23930252003273</v>
+        <v>16.42834567459672</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.56526752789004</v>
+        <v>21.02548538848522</v>
       </c>
       <c r="C25">
-        <v>8.830831317804964</v>
+        <v>14.02083857638148</v>
       </c>
       <c r="D25">
-        <v>3.995890858450632</v>
+        <v>3.783243427735671</v>
       </c>
       <c r="E25">
-        <v>11.98387268917391</v>
+        <v>13.1203767152298</v>
       </c>
       <c r="F25">
-        <v>21.84247297828357</v>
+        <v>20.6343143243235</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.63262776554352</v>
+        <v>19.03929312983316</v>
       </c>
       <c r="N25">
-        <v>16.47193339399939</v>
+        <v>10.71600703029747</v>
       </c>
       <c r="O25">
-        <v>19.19137171584733</v>
+        <v>15.49764834886599</v>
       </c>
     </row>
   </sheetData>
